--- a/NhryService/src/main/webapp/report/template/OrderTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/OrderTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="订单" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>订单编号
 16072102083161400000</t>
@@ -176,6 +176,81 @@
   <si>
     <t>间隔天数
 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">装箱状态
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">已装箱
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">20 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">未安装
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">30 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无需安装</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -614,13 +689,14 @@
     <col min="4" max="4" width="18.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="16.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="71.25">
+    <row r="1" spans="1:10" ht="71.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -640,12 +716,15 @@
         <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -659,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>

--- a/NhryService/src/main/webapp/report/template/OrderTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/OrderTemplate.xlsx
@@ -22,11 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t>订单编号
-16072102083161400000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">奶站编号
 </t>
@@ -250,6 +245,24 @@
         <scheme val="minor"/>
       </rPr>
       <t>无需安装</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">订单编号
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0E007I125</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -678,7 +691,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -698,34 +711,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="71.25">
       <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -738,9 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
   <cols>
@@ -758,31 +769,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="42.75">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
